--- a/views/既有线拨距计算/test_data.xlsx
+++ b/views/既有线拨距计算/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\rtp\views\既有线拨距计算\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1F5FD9-2278-490E-9CD0-14AC539BAD72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F4FE98-695B-4D39-8A74-4E7AF6D54975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2200" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>置镜点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,10 @@
 3.不要修改表头。
 4.不要修改sheet的名字和顺序。
 5.计算结果仅供参考。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>l^3/(6Rl0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,13 +543,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -561,18 +577,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2440,92 +2444,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
       <c r="T1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="15" t="s">
+      <c r="R2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2544,18 +2548,18 @@
       <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="13"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -2902,11 +2906,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="19">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F1:L1"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="N1:S1"/>
@@ -2921,6 +2920,11 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2957,92 +2961,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
       <c r="T1" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
@@ -3061,18 +3065,18 @@
       <c r="H3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="13"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
@@ -3783,12 +3787,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="F4:T27"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="N1:S1"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -3797,12 +3801,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="F4:T27"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F1:L1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
